--- a/biology/Zoologie/Per_Olof_Christopher_Aurivillius/Per_Olof_Christopher_Aurivillius.xlsx
+++ b/biology/Zoologie/Per_Olof_Christopher_Aurivillius/Per_Olof_Christopher_Aurivillius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Per Olof Christopher Aurivillius, né à Forsa le 15 janvier 1853 et mort à Mörby le 20 juillet 1928, est un entomologiste suédois.
 Il dirige le muséum de Stockholm et se spécialise sur les coléoptères et les lépidoptères. Il est longtemps le secrétaire de l'Académie royale des sciences de Suède.
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Über sekundäre Geschlechtscharaktere nordischer Tagfalter, Stockholm (1880)
 Rhopalocera Aethiopica (1898) BHL
